--- a/drive-time-locator/Backend/locations_with_coords.xlsx
+++ b/drive-time-locator/Backend/locations_with_coords.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivier.d\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0BFA4A-0F32-4289-AEAE-6DBFBF0C887A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="207">
   <si>
     <t>Name</t>
   </si>
@@ -553,24 +562,9 @@
     <t>9285 UPSTREAM LN,KNOXVILLE,TN,37931</t>
   </si>
   <si>
-    <t>ONVIS LLC DBA OTOVO</t>
-  </si>
-  <si>
-    <t>4601 Westway Park Boulevard</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
     <t>TX</t>
   </si>
   <si>
-    <t>77041</t>
-  </si>
-  <si>
-    <t>4601 Westway Park Boulevard,Houston,TX,77041</t>
-  </si>
-  <si>
     <t>VISIONS DESIGN  ELECTRICAL &amp; CONSTRUCTION LLC</t>
   </si>
   <si>
@@ -647,29 +641,28 @@
   </si>
   <si>
     <t>12914 SE 257TH ST,KENT,WA,98030</t>
-  </si>
-  <si>
-    <t>,,,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -680,11 +673,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -698,34 +697,38 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -915,27 +918,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I994"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J28" sqref="A28:J28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.57"/>
-    <col customWidth="1" min="2" max="7" width="8.71"/>
-    <col customWidth="1" min="8" max="8" width="12.43"/>
-    <col customWidth="1" min="9" max="9" width="18.0"/>
-    <col customWidth="1" min="10" max="25" width="8.71"/>
+    <col min="1" max="1" width="18.54296875" customWidth="1"/>
+    <col min="2" max="7" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="25" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -964,7 +969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -990,10 +995,10 @@
         <v>-111.861363</v>
       </c>
       <c r="I2" s="2">
-        <v>33.310045</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>33.310045000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1016,13 +1021,13 @@
         <v>22</v>
       </c>
       <c r="H3" s="3">
-        <v>-121.784928</v>
+        <v>-121.78492799999999</v>
       </c>
       <c r="I3" s="3">
-        <v>37.6781</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>37.678100000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1051,7 +1056,7 @@
         <v>34.221238</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -1077,10 +1082,10 @@
         <v>-121.071247</v>
       </c>
       <c r="I5" s="3">
-        <v>38.898076</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>38.898076000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
@@ -1103,13 +1108,13 @@
         <v>41</v>
       </c>
       <c r="H6" s="3">
-        <v>-91.878241</v>
+        <v>-91.878241000000003</v>
       </c>
       <c r="I6" s="3">
-        <v>42.467132</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>42.467131999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
@@ -1132,13 +1137,13 @@
         <v>48</v>
       </c>
       <c r="H7" s="3">
-        <v>-116.311675</v>
+        <v>-116.31167499999999</v>
       </c>
       <c r="I7" s="3">
-        <v>43.701984</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>43.701984000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>49</v>
       </c>
@@ -1161,13 +1166,13 @@
         <v>55</v>
       </c>
       <c r="H8" s="3">
-        <v>-88.616303</v>
+        <v>-88.616303000000002</v>
       </c>
       <c r="I8" s="3">
         <v>41.644714</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>56</v>
       </c>
@@ -1190,13 +1195,13 @@
         <v>62</v>
       </c>
       <c r="H9" s="3">
-        <v>-91.65208</v>
+        <v>-91.652079999999998</v>
       </c>
       <c r="I9" s="3">
         <v>35.74174</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>63</v>
       </c>
@@ -1219,13 +1224,13 @@
         <v>68</v>
       </c>
       <c r="H10" s="3">
-        <v>-86.620096</v>
+        <v>-86.620096000000004</v>
       </c>
       <c r="I10" s="3">
-        <v>39.21928</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>39.219279999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>69</v>
       </c>
@@ -1248,13 +1253,13 @@
         <v>74</v>
       </c>
       <c r="H11" s="3">
-        <v>-86.246138</v>
+        <v>-86.246138000000002</v>
       </c>
       <c r="I11" s="3">
         <v>39.89385</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>75</v>
       </c>
@@ -1277,13 +1282,13 @@
         <v>81</v>
       </c>
       <c r="H12" s="3">
-        <v>-83.442262</v>
+        <v>-83.442261999999999</v>
       </c>
       <c r="I12" s="3">
         <v>42.569713</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>82</v>
       </c>
@@ -1306,13 +1311,13 @@
         <v>88</v>
       </c>
       <c r="H13" s="3">
-        <v>-93.234643</v>
+        <v>-93.234643000000005</v>
       </c>
       <c r="I13" s="3">
-        <v>37.227838</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>37.227837999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>89</v>
       </c>
@@ -1335,13 +1340,13 @@
         <v>94</v>
       </c>
       <c r="H14" s="3">
-        <v>-89.677479</v>
+        <v>-89.677479000000005</v>
       </c>
       <c r="I14" s="3">
-        <v>37.383607</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>37.383606999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>95</v>
       </c>
@@ -1367,10 +1372,10 @@
         <v>-80.893687</v>
       </c>
       <c r="I15" s="3">
-        <v>35.188483</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
+        <v>35.188482999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>102</v>
       </c>
@@ -1393,13 +1398,13 @@
         <v>107</v>
       </c>
       <c r="H16" s="3">
-        <v>-78.745881</v>
+        <v>-78.745880999999997</v>
       </c>
       <c r="I16" s="3">
         <v>35.895916</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>108</v>
       </c>
@@ -1422,13 +1427,13 @@
         <v>114</v>
       </c>
       <c r="H17" s="3">
-        <v>-78.852472</v>
+        <v>-78.852472000000006</v>
       </c>
       <c r="I17" s="3">
-        <v>42.958297</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
+        <v>42.958297000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>115</v>
       </c>
@@ -1451,13 +1456,13 @@
         <v>121</v>
       </c>
       <c r="H18" s="3">
-        <v>-82.794097</v>
+        <v>-82.794096999999994</v>
       </c>
       <c r="I18" s="3">
-        <v>40.509237</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
+        <v>40.509236999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>122</v>
       </c>
@@ -1480,13 +1485,13 @@
         <v>127</v>
       </c>
       <c r="H19" s="3">
-        <v>-84.460309</v>
+        <v>-84.460308999999995</v>
       </c>
       <c r="I19" s="3">
-        <v>39.262909</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
+        <v>39.262909000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>128</v>
       </c>
@@ -1509,13 +1514,13 @@
         <v>133</v>
       </c>
       <c r="H20" s="3">
-        <v>-82.490209</v>
+        <v>-82.490208999999993</v>
       </c>
       <c r="I20" s="3">
-        <v>41.323565</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+        <v>41.323565000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>134</v>
       </c>
@@ -1538,13 +1543,13 @@
         <v>139</v>
       </c>
       <c r="H21" s="3">
-        <v>-81.788777</v>
+        <v>-81.788776999999996</v>
       </c>
       <c r="I21" s="3">
-        <v>40.966545</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <v>40.966545000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>140</v>
       </c>
@@ -1567,13 +1572,13 @@
         <v>145</v>
       </c>
       <c r="H22" s="3">
-        <v>-84.381606</v>
+        <v>-84.381606000000005</v>
       </c>
       <c r="I22" s="3">
-        <v>39.306282</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+        <v>39.306282000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>146</v>
       </c>
@@ -1596,13 +1601,13 @@
         <v>152</v>
       </c>
       <c r="H23" s="3">
-        <v>-123.125458</v>
+        <v>-123.12545799999999</v>
       </c>
       <c r="I23" s="3">
         <v>44.092323</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>153</v>
       </c>
@@ -1625,13 +1630,13 @@
         <v>159</v>
       </c>
       <c r="H24" s="3">
-        <v>-71.396381</v>
+        <v>-71.396381000000005</v>
       </c>
       <c r="I24" s="3">
-        <v>41.884462</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+        <v>41.884461999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>160</v>
       </c>
@@ -1654,13 +1659,13 @@
         <v>166</v>
       </c>
       <c r="H25" s="3">
-        <v>-80.182766</v>
+        <v>-80.182766000000001</v>
       </c>
       <c r="I25" s="3">
-        <v>33.012176</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+        <v>33.012175999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>167</v>
       </c>
@@ -1683,13 +1688,13 @@
         <v>173</v>
       </c>
       <c r="H26" s="3">
-        <v>-83.78241</v>
+        <v>-83.782409999999999</v>
       </c>
       <c r="I26" s="3">
-        <v>36.15369</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+        <v>36.153689999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>174</v>
       </c>
@@ -1712,1147 +1717,1113 @@
         <v>179</v>
       </c>
       <c r="H27" s="3">
-        <v>-83.969472</v>
+        <v>-83.969471999999996</v>
       </c>
       <c r="I27" s="3">
         <v>35.973011</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G28" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="H28" s="3">
-        <v>-95.559603</v>
-      </c>
-      <c r="I28" s="3">
-        <v>29.834281</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="H29" s="3">
+        <v>-98.116089000000002</v>
+      </c>
+      <c r="I29" s="3">
+        <v>29.694703000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="H29" s="3">
-        <v>-98.116089</v>
-      </c>
-      <c r="I29" s="3">
-        <v>29.694703</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="H30" s="3">
-        <v>-78.63668</v>
+        <v>-78.636679999999998</v>
       </c>
       <c r="I30" s="3">
         <v>37.9407</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="H31" s="3">
+        <v>-78.482369000000006</v>
+      </c>
+      <c r="I31" s="3">
+        <v>38.036141000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F31" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="H31" s="3">
-        <v>-78.482369</v>
-      </c>
-      <c r="I31" s="3">
-        <v>38.036141</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="H32" s="3">
         <v>-122.168651</v>
       </c>
       <c r="I32" s="3">
-        <v>47.371458</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="3">
-        <v>36.0</v>
-      </c>
-      <c r="H34" s="3">
-        <v>100.77522</v>
-      </c>
-      <c r="I34" s="3">
-        <v>18.776703</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="3">
-        <v>37.0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>100.77522</v>
-      </c>
-      <c r="I35" s="3">
-        <v>18.776703</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
+        <v>47.371457999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/drive-time-locator/Backend/locations_with_coords.xlsx
+++ b/drive-time-locator/Backend/locations_with_coords.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>555 Robson St</t>
+          <t>555 Robson St, VANCOUVER, BC, V6B 1A6</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -496,7 +496,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4601 Westway Park Boulevard</t>
+          <t>4601 Westway Park Boulevard, Houston, TX, 77041</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -519,14 +519,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>#3 CALLE ACACIA OFICINA 201-B</t>
+          <t>#3 CALLE ACACIA OFICINA 201-B, SAN JUAN, PR, 920</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>25.826598</v>
+        <v>18.46633</v>
       </c>
       <c r="E4" t="n">
-        <v>-108.995069</v>
+        <v>-66.10572000000001</v>
       </c>
     </row>
     <row r="5">
@@ -542,7 +542,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>171 AUHANA RD</t>
+          <t>171 AUHANA RD, KIHEI, HI, 96753</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -565,7 +565,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>98-723 KUAHAO PL STE A13</t>
+          <t>98-723 KUAHAO PL STE A13, PEARL CITY, HI, 96782</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -588,14 +588,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16-711 MILO ST UNIT B</t>
+          <t>16-711 MILO ST UNIT B, KEAAU, HI, 96749</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>64.80244999999999</v>
+        <v>19.627332</v>
       </c>
       <c r="E7" t="n">
-        <v>-147.450512</v>
+        <v>-155.030647</v>
       </c>
     </row>
     <row r="8">
@@ -611,14 +611,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3989 1ST ST STE E</t>
+          <t>3989 1ST ST STE E, LIVERMORE, CA, 94551</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>37.645259</v>
+        <v>37.6781</v>
       </c>
       <c r="E8" t="n">
-        <v>-98.43555499999999</v>
+        <v>-121.784928</v>
       </c>
     </row>
     <row r="9">
@@ -634,7 +634,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10604 N PALISADES WAY</t>
+          <t>10604 N PALISADES WAY, BOISE, ID, 83714</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -657,14 +657,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>6344 US RT 22-3</t>
+          <t>6344 US RT 22-3, MORROW, OH, 45152</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>44.141366</v>
+        <v>40.509237</v>
       </c>
       <c r="E10" t="n">
-        <v>-72.31336899999999</v>
+        <v>-82.79409699999999</v>
       </c>
     </row>
     <row r="11">
@@ -680,7 +680,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1725 N PACKER RD</t>
+          <t>1725 N PACKER RD, SPRINGFIELD, MO, 65803</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -703,7 +703,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>932 KENMORE AVE</t>
+          <t>932 KENMORE AVE, BUFFALO, NY, 14216-1462</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -726,14 +726,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5510 N. HWY 27</t>
+          <t>5510 N. HWY 27, BRYANT, IN, 47326-8835</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>34.834315</v>
+        <v>35.74174</v>
       </c>
       <c r="E13" t="n">
-        <v>-85.24355300000001</v>
+        <v>-91.65208</v>
       </c>
     </row>
     <row r="14">
@@ -749,14 +749,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>7511 KEKAA ST</t>
+          <t>7511 KEKAA ST, HONOLULU, HI, 96825-2805</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>21.296473</v>
+        <v>21.40572</v>
       </c>
       <c r="E14" t="n">
-        <v>-157.674734</v>
+        <v>-157.789396</v>
       </c>
     </row>
     <row r="15">
@@ -772,7 +772,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3260 OLD FARM LN</t>
+          <t>3260 OLD FARM LN, COMMERCE, MI, 48390</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -795,14 +795,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>6150 W CHANDLER BLVD #17</t>
+          <t>6150 W CHANDLER BLVD #17, CHANDLER, AZ, 85226</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>33.305405</v>
+        <v>33.310045</v>
       </c>
       <c r="E16" t="n">
-        <v>-111.909034</v>
+        <v>-111.861363</v>
       </c>
     </row>
     <row r="17">
@@ -818,7 +818,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>680 Redna Terrace</t>
+          <t>680 Redna Terrace, Cincinnati, OH, 45215</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -841,14 +841,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>91-6221 KAPOLEI PARKWAY UNIT 11</t>
+          <t>91-6221 KAPOLEI PARKWAY UNIT 11, EWA BEACH, HI, 96706</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>21.335959</v>
+        <v>21.325072</v>
       </c>
       <c r="E18" t="n">
-        <v>-158.053795</v>
+        <v>-158.028212</v>
       </c>
     </row>
     <row r="19">
@@ -864,7 +864,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>35 OWOSSO DR</t>
+          <t>35 OWOSSO DR, EUGENE, OR, 97404-2628</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -887,14 +887,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14500 ROSCOE BLVD 4TH FLOOR</t>
+          <t>14500 ROSCOE BLVD 4TH FLOOR, PANORAMA CITY, CA, 91402</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>34.221579</v>
+        <v>34.221238</v>
       </c>
       <c r="E20" t="n">
-        <v>-118.376369</v>
+        <v>-118.444706</v>
       </c>
     </row>
     <row r="21">
@@ -910,14 +910,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>127 W MAIN ST APT A</t>
+          <t>127 W MAIN ST APT A, JACKSON, MO, 63755-1879</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>46.563824</v>
+        <v>37.383607</v>
       </c>
       <c r="E21" t="n">
-        <v>-112.435421</v>
+        <v>-89.67747900000001</v>
       </c>
     </row>
     <row r="22">
@@ -933,14 +933,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>132 TERRACE DR</t>
+          <t>132 TERRACE DR, INDEPENDENCE, IA, 50644</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>36.889074</v>
+        <v>42.467132</v>
       </c>
       <c r="E22" t="n">
-        <v>-89.575926</v>
+        <v>-91.878241</v>
       </c>
     </row>
     <row r="23">
@@ -956,14 +956,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>535 PINE ST</t>
+          <t>535 PINE ST, CENTRAL FALLS, RI, 2863</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>39.135353</v>
+        <v>41.884462</v>
       </c>
       <c r="E23" t="n">
-        <v>-95.95522800000001</v>
+        <v>-71.39638100000001</v>
       </c>
     </row>
     <row r="24">
@@ -979,14 +979,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>6210 CARDWELL RD</t>
+          <t>6210 CARDWELL RD, CORRYTON, TN, 37721-3715</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>36.926368</v>
+        <v>36.15369</v>
       </c>
       <c r="E24" t="n">
-        <v>-87.181316</v>
+        <v>-83.78241</v>
       </c>
     </row>
     <row r="25">
@@ -1002,14 +1002,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>801 PRESSLEY RD STE 100-C</t>
+          <t>801 PRESSLEY RD STE 100-C, CHARLOTTE, NC, 28217</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>35.600409</v>
+        <v>35.188483</v>
       </c>
       <c r="E25" t="n">
-        <v>-82.508619</v>
+        <v>-80.893687</v>
       </c>
     </row>
     <row r="26">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>12914 SE 257TH ST</t>
+          <t>12914 SE 257TH ST, KENT, WA, 98030</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1048,14 +1048,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4363 BURTON LN</t>
+          <t>4363 BURTON LN, NORTH GARDEN, VA, 22959</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>32.096141</v>
+        <v>37.9407</v>
       </c>
       <c r="E27" t="n">
-        <v>-90.16226899999999</v>
+        <v>-78.63668</v>
       </c>
     </row>
     <row r="28">
@@ -1071,14 +1071,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>10415 HARMON RD</t>
+          <t>10415 HARMON RD, BERLIN HEIGHTS, OH, 44814</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>36.529843</v>
+        <v>41.323565</v>
       </c>
       <c r="E28" t="n">
-        <v>-88.267402</v>
+        <v>-82.49020899999999</v>
       </c>
     </row>
     <row r="29">
@@ -1094,14 +1094,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>841 WATSON LN W</t>
+          <t>841 WATSON LN W, NEW BRAUNFELS, TX, 78130</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>29.787388</v>
+        <v>29.694703</v>
       </c>
       <c r="E29" t="n">
-        <v>-98.04325300000001</v>
+        <v>-98.116089</v>
       </c>
     </row>
     <row r="30">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>903 S DEER RUN</t>
+          <t>903 S DEER RUN, ELLETTSVILLE, IN, 47429</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>7735 WINTON DR</t>
+          <t>7735 WINTON DR, INDIANAPOLIS, IN, 46268</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1163,14 +1163,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>9285 UPSTREAM LN</t>
+          <t>9285 UPSTREAM LN, KNOXVILLE, TN, 37931</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>38.505677</v>
+        <v>35.973011</v>
       </c>
       <c r="E32" t="n">
-        <v>-79.054361</v>
+        <v>-83.969472</v>
       </c>
     </row>
     <row r="33">
@@ -1186,14 +1186,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>930 BONNIE LN</t>
+          <t>930 BONNIE LN, AUBURN, CA, 95603-9452</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>41.527285</v>
+        <v>38.898076</v>
       </c>
       <c r="E33" t="n">
-        <v>-81.448522</v>
+        <v>-121.071247</v>
       </c>
     </row>
     <row r="34">
@@ -1209,14 +1209,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>138 STERLING AVE</t>
+          <t>138 STERLING AVE, RITTMAN, OH, 44270-1655</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>49.833646</v>
+        <v>40.966545</v>
       </c>
       <c r="E34" t="n">
-        <v>-97.10127300000001</v>
+        <v>-81.788777</v>
       </c>
     </row>
     <row r="35">
@@ -1232,14 +1232,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>180 GRANTON EDGE LN</t>
+          <t>180 GRANTON EDGE LN, SUMMERVILLE, SC, 29486</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>33.144226</v>
+        <v>33.012176</v>
       </c>
       <c r="E35" t="n">
-        <v>-80.093373</v>
+        <v>-80.182766</v>
       </c>
     </row>
     <row r="36">
@@ -1255,14 +1255,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>9756 TALL TIMBER DR</t>
+          <t>9756 TALL TIMBER DR, WEST CHESTER, OH, 45241-1221</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>42.089501</v>
+        <v>39.306282</v>
       </c>
       <c r="E36" t="n">
-        <v>-72.448956</v>
+        <v>-84.381606</v>
       </c>
     </row>
     <row r="37">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>5908 TRIANGLE DR</t>
+          <t>5908 TRIANGLE DR, RALEIGH, NC, 27617</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1301,14 +1301,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1132 E MARKET ST BAY 5</t>
+          <t>1132 E MARKET ST BAY 5, CHARLOTTESVILLE, VA, 22902-5351</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>42.280665</v>
+        <v>38.036141</v>
       </c>
       <c r="E38" t="n">
-        <v>-94.290148</v>
+        <v>-78.48236900000001</v>
       </c>
     </row>
     <row r="39">
@@ -1324,14 +1324,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>926 E CHURCH ST</t>
+          <t>926 E CHURCH ST, SANDWICH, IL, 60548</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>41.690599</v>
+        <v>41.644714</v>
       </c>
       <c r="E39" t="n">
-        <v>-94.361904</v>
+        <v>-88.616303</v>
       </c>
     </row>
   </sheetData>

--- a/drive-time-locator/Backend/locations_with_coords.xlsx
+++ b/drive-time-locator/Backend/locations_with_coords.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Assigned by Escalation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1332,6 +1332,75 @@
       </c>
       <c r="E39" t="n">
         <v>-88.616303</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Suntalk Solar</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>3rd Party</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>27846 US-550, Durango, CO 81301, USA</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>37.311083</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-107.858233</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>FLATROCK SOLAR INC</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>3rd party</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>9900 E 51st Ave, Denver, CO 80238, USA</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>39.78919</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-104.950523</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>COLORADO'S RELIABLE ELECTRIC LLC</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>3rd Party</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>3501 S Mason St, Fort Collins, CO 80525, USA</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>40.584441</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-105.078982</v>
       </c>
     </row>
   </sheetData>
